--- a/tempData/Furniture.xlsx
+++ b/tempData/Furniture.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36180" yWindow="3300" windowWidth="28800" windowHeight="17544"/>
+    <workbookView xWindow="-36180" yWindow="3900" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
@@ -16104,8 +16104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="R199" sqref="R199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/tempData/Furniture.xlsx
+++ b/tempData/Furniture.xlsx
@@ -20843,9 +20843,6 @@
     <t>Only available during Mushroom Season</t>
   </si>
   <si>
-    <t>Only available during Maple Leaf Season</t>
-  </si>
-  <si>
     <t>Reward from Zipper after crafting wobbling Zipper toy; Only available during Bunny Day</t>
   </si>
   <si>
@@ -21262,6 +21259,10 @@
   </si>
   <si>
     <t>製作完美的雪人；僅在冬季期間獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only available during Maple Leaf Season</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84641,7 +84642,7 @@
   <dimension ref="A1:Z484"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -84995,7 +84996,7 @@
         <v>6883</v>
       </c>
       <c r="Z6" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -85045,7 +85046,7 @@
         <v>6882</v>
       </c>
       <c r="Z7" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -85095,7 +85096,7 @@
         <v>6880</v>
       </c>
       <c r="Z8" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -85145,7 +85146,7 @@
         <v>6881</v>
       </c>
       <c r="Z9" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -85174,10 +85175,10 @@
         <v>5046</v>
       </c>
       <c r="P10" t="s">
+        <v>6995</v>
+      </c>
+      <c r="Q10" t="s">
         <v>6996</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>6997</v>
       </c>
       <c r="S10" t="s">
         <v>3291</v>
@@ -85195,7 +85196,7 @@
         <v>6884</v>
       </c>
       <c r="Z10" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -85245,7 +85246,7 @@
         <v>6885</v>
       </c>
       <c r="Z11" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -85292,10 +85293,10 @@
         <v>5624</v>
       </c>
       <c r="Y12" t="s">
-        <v>6886</v>
+        <v>7002</v>
       </c>
       <c r="Z12" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -85342,10 +85343,10 @@
         <v>5625</v>
       </c>
       <c r="Y13" t="s">
+        <v>6905</v>
+      </c>
+      <c r="Z13" t="s">
         <v>6906</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>6907</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -85392,10 +85393,10 @@
         <v>5686</v>
       </c>
       <c r="Y14" t="s">
-        <v>6993</v>
+        <v>6992</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -85403,7 +85404,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -85442,10 +85443,10 @@
         <v>5626</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
       <c r="Z15" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -85492,10 +85493,10 @@
         <v>5627</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
       <c r="Z16" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="17" spans="4:26" x14ac:dyDescent="0.3">
@@ -85542,10 +85543,10 @@
         <v>5628</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
       <c r="Z17" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="18" spans="4:26" x14ac:dyDescent="0.3">
@@ -85553,7 +85554,7 @@
         <v>5689</v>
       </c>
       <c r="E18" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
       <c r="G18" t="s">
         <v>182</v>
@@ -85592,10 +85593,10 @@
         <v>5629</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="19" spans="4:26" x14ac:dyDescent="0.3">
@@ -85642,10 +85643,10 @@
         <v>5630</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="Z19" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="20" spans="4:26" x14ac:dyDescent="0.3">
@@ -85692,10 +85693,10 @@
         <v>5631</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
       <c r="Z20" t="s">
-        <v>6988</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="21" spans="4:26" x14ac:dyDescent="0.3">
@@ -85742,10 +85743,10 @@
         <v>5582</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>6989</v>
+        <v>6988</v>
       </c>
       <c r="Z21" t="s">
-        <v>6991</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.3">
@@ -85792,10 +85793,10 @@
         <v>5275</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
       <c r="Z22" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="23" spans="4:26" x14ac:dyDescent="0.3">
@@ -85842,10 +85843,10 @@
         <v>5589</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
       <c r="Z23" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="24" spans="4:26" x14ac:dyDescent="0.3">
@@ -85892,10 +85893,10 @@
         <v>5632</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
       <c r="Z24" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.3">
@@ -85936,10 +85937,10 @@
         <v>5633</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
       <c r="Z25" t="s">
-        <v>7000</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="26" spans="4:26" x14ac:dyDescent="0.3">
@@ -85974,10 +85975,10 @@
         <v>5634</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>6887</v>
+        <v>6886</v>
       </c>
       <c r="Z26" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="27" spans="4:26" x14ac:dyDescent="0.3">
@@ -86044,10 +86045,10 @@
         <v>6874</v>
       </c>
       <c r="Y28" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
       <c r="Z28" t="s">
-        <v>6942</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.3">
@@ -86082,10 +86083,10 @@
         <v>5637</v>
       </c>
       <c r="Y29" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="Z29" t="s">
-        <v>6942</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.3">
@@ -86120,10 +86121,10 @@
         <v>5638</v>
       </c>
       <c r="Y30" t="s">
+        <v>6961</v>
+      </c>
+      <c r="Z30" t="s">
         <v>6962</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>6963</v>
       </c>
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.3">
@@ -86500,10 +86501,10 @@
         <v>5646</v>
       </c>
       <c r="Y40" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="Z40" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="41" spans="7:26" x14ac:dyDescent="0.3">
@@ -86538,10 +86539,10 @@
         <v>5647</v>
       </c>
       <c r="Y41" t="s">
-        <v>6927</v>
+        <v>6926</v>
       </c>
       <c r="Z41" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="42" spans="7:26" x14ac:dyDescent="0.3">
@@ -86576,10 +86577,10 @@
         <v>5503</v>
       </c>
       <c r="Y42" t="s">
-        <v>6941</v>
+        <v>6940</v>
       </c>
       <c r="Z42" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="43" spans="7:26" x14ac:dyDescent="0.3">
@@ -86614,10 +86615,10 @@
         <v>2175</v>
       </c>
       <c r="Y43" t="s">
+        <v>6963</v>
+      </c>
+      <c r="Z43" t="s">
         <v>6964</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>6965</v>
       </c>
     </row>
     <row r="44" spans="7:26" x14ac:dyDescent="0.3">
@@ -86652,10 +86653,10 @@
         <v>5648</v>
       </c>
       <c r="Y44" t="s">
+        <v>6966</v>
+      </c>
+      <c r="Z44" t="s">
         <v>6967</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>6968</v>
       </c>
     </row>
     <row r="45" spans="7:26" x14ac:dyDescent="0.3">
@@ -86690,10 +86691,10 @@
         <v>5649</v>
       </c>
       <c r="Y45" t="s">
+        <v>6955</v>
+      </c>
+      <c r="Z45" t="s">
         <v>6956</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>6957</v>
       </c>
     </row>
     <row r="46" spans="7:26" x14ac:dyDescent="0.3">
@@ -86728,10 +86729,10 @@
         <v>5650</v>
       </c>
       <c r="Y46" t="s">
+        <v>6972</v>
+      </c>
+      <c r="Z46" t="s">
         <v>6973</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>6974</v>
       </c>
     </row>
     <row r="47" spans="7:26" x14ac:dyDescent="0.3">
@@ -86766,10 +86767,10 @@
         <v>5651</v>
       </c>
       <c r="Y47" t="s">
+        <v>6948</v>
+      </c>
+      <c r="Z47" t="s">
         <v>6949</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>6950</v>
       </c>
     </row>
     <row r="48" spans="7:26" x14ac:dyDescent="0.3">
@@ -86804,10 +86805,10 @@
         <v>5652</v>
       </c>
       <c r="Y48" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="Z48" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="49" spans="7:26" x14ac:dyDescent="0.3">
@@ -86842,10 +86843,10 @@
         <v>5653</v>
       </c>
       <c r="Y49" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="Z49" t="s">
-        <v>6977</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="50" spans="7:26" x14ac:dyDescent="0.3">
@@ -86880,10 +86881,10 @@
         <v>810</v>
       </c>
       <c r="Y50" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="Z50" t="s">
-        <v>6976</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="51" spans="7:26" x14ac:dyDescent="0.3">
@@ -86912,10 +86913,10 @@
         <v>5654</v>
       </c>
       <c r="Y51" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
       <c r="Z51" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="52" spans="7:26" x14ac:dyDescent="0.3">
@@ -86944,10 +86945,10 @@
         <v>5655</v>
       </c>
       <c r="Y52" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="Z52" t="s">
-        <v>6946</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="53" spans="7:26" x14ac:dyDescent="0.3">
@@ -86976,10 +86977,10 @@
         <v>5656</v>
       </c>
       <c r="Y53" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
       <c r="Z53" t="s">
-        <v>6947</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="54" spans="7:26" x14ac:dyDescent="0.3">
@@ -87008,10 +87009,10 @@
         <v>5657</v>
       </c>
       <c r="Y54" t="s">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="Z54" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -87034,10 +87035,10 @@
         <v>5780</v>
       </c>
       <c r="Y55" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="Z55" t="s">
-        <v>6979</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="56" spans="7:26" x14ac:dyDescent="0.3">
@@ -87060,10 +87061,10 @@
         <v>2221</v>
       </c>
       <c r="Y56" t="s">
-        <v>6932</v>
+        <v>6931</v>
       </c>
       <c r="Z56" t="s">
-        <v>6980</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="57" spans="7:26" x14ac:dyDescent="0.3">
@@ -87086,10 +87087,10 @@
         <v>5488</v>
       </c>
       <c r="Y57" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
       <c r="Z57" t="s">
-        <v>6981</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="58" spans="7:26" x14ac:dyDescent="0.3">
@@ -87138,10 +87139,10 @@
         <v>5490</v>
       </c>
       <c r="Y59" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
       <c r="Z59" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="60" spans="7:26" x14ac:dyDescent="0.3">
@@ -87164,10 +87165,10 @@
         <v>5491</v>
       </c>
       <c r="Y60" t="s">
+        <v>6950</v>
+      </c>
+      <c r="Z60" t="s">
         <v>6951</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>6952</v>
       </c>
     </row>
     <row r="61" spans="7:26" x14ac:dyDescent="0.3">
@@ -87190,10 +87191,10 @@
         <v>5492</v>
       </c>
       <c r="Y61" t="s">
+        <v>6983</v>
+      </c>
+      <c r="Z61" t="s">
         <v>6984</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>6985</v>
       </c>
     </row>
     <row r="62" spans="7:26" x14ac:dyDescent="0.3">
@@ -87210,10 +87211,10 @@
         <v>5493</v>
       </c>
       <c r="Y62" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="Z62" t="s">
-        <v>6986</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="63" spans="7:26" x14ac:dyDescent="0.3">
@@ -87230,10 +87231,10 @@
         <v>5494</v>
       </c>
       <c r="Y63" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
       <c r="Z63" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="64" spans="7:26" x14ac:dyDescent="0.3">
@@ -87250,10 +87251,10 @@
         <v>5773</v>
       </c>
       <c r="Y64" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="Z64" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="65" spans="13:26" x14ac:dyDescent="0.3">
@@ -87270,10 +87271,10 @@
         <v>5495</v>
       </c>
       <c r="Y65" t="s">
-        <v>6930</v>
+        <v>6929</v>
       </c>
       <c r="Z65" t="s">
-        <v>6970</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="66" spans="13:26" x14ac:dyDescent="0.3">
@@ -87290,10 +87291,10 @@
         <v>5496</v>
       </c>
       <c r="Y66" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="Z66" t="s">
-        <v>6982</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="67" spans="13:26" x14ac:dyDescent="0.3">
@@ -87310,10 +87311,10 @@
         <v>5058</v>
       </c>
       <c r="Y67" t="s">
-        <v>6928</v>
+        <v>6927</v>
       </c>
       <c r="Z67" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="68" spans="13:26" x14ac:dyDescent="0.3">
@@ -87330,10 +87331,10 @@
         <v>5280</v>
       </c>
       <c r="Y68" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>6983</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="69" spans="13:26" x14ac:dyDescent="0.3">
@@ -87350,10 +87351,10 @@
         <v>5281</v>
       </c>
       <c r="Y69" t="s">
+        <v>6952</v>
+      </c>
+      <c r="Z69" t="s">
         <v>6953</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>6954</v>
       </c>
     </row>
     <row r="70" spans="13:26" x14ac:dyDescent="0.3">
@@ -87370,10 +87371,10 @@
         <v>2226</v>
       </c>
       <c r="Y70" t="s">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="Z70" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="71" spans="13:26" x14ac:dyDescent="0.3">
@@ -87390,10 +87391,10 @@
         <v>5424</v>
       </c>
       <c r="Y71" t="s">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="Z71" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="72" spans="13:26" x14ac:dyDescent="0.3">
@@ -87410,7 +87411,7 @@
         <v>5287</v>
       </c>
       <c r="Y72" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="Z72" t="s">
         <v>3982</v>
@@ -87430,10 +87431,10 @@
         <v>5497</v>
       </c>
       <c r="Y73" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="Z73" t="s">
-        <v>6943</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="74" spans="13:26" x14ac:dyDescent="0.3">
@@ -87450,10 +87451,10 @@
         <v>5498</v>
       </c>
       <c r="Y74" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="Z74" t="s">
-        <v>6990</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="75" spans="13:26" x14ac:dyDescent="0.3">
@@ -87470,10 +87471,10 @@
         <v>5499</v>
       </c>
       <c r="Y75" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="Z75" t="s">
-        <v>6987</v>
+        <v>6986</v>
       </c>
     </row>
     <row r="76" spans="13:26" x14ac:dyDescent="0.3">
@@ -87490,10 +87491,10 @@
         <v>5500</v>
       </c>
       <c r="Y76" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
       <c r="Z76" t="s">
-        <v>6944</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="77" spans="13:26" x14ac:dyDescent="0.3">
@@ -87510,10 +87511,10 @@
         <v>5501</v>
       </c>
       <c r="Y77" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="Z77" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="78" spans="13:26" x14ac:dyDescent="0.3">
